--- a/notes/Fe-complex.xlsx
+++ b/notes/Fe-complex.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="1"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="52">
   <si>
     <t>q</t>
   </si>
@@ -124,6 +124,18 @@
     <t>Int1-O2</t>
   </si>
   <si>
+    <t>Int1b-O1-N</t>
+  </si>
+  <si>
+    <t>TS1</t>
+  </si>
+  <si>
+    <t>Int2b-O1-N</t>
+  </si>
+  <si>
+    <t>Int3b-O1-N</t>
+  </si>
+  <si>
     <t>Int2b-O12-N</t>
   </si>
   <si>
@@ -149,6 +161,30 @@
   </si>
   <si>
     <t>Int2-O12-O3</t>
+  </si>
+  <si>
+    <t>ωB97X-D</t>
+  </si>
+  <si>
+    <t>Int1b-O1-O3</t>
+  </si>
+  <si>
+    <t>Septet</t>
+  </si>
+  <si>
+    <t>Int1-O1-N</t>
+  </si>
+  <si>
+    <t>Int2b2-O1-N</t>
+  </si>
+  <si>
+    <t>Actually it is Int1-O1-N</t>
+  </si>
+  <si>
+    <t>Int3-O1-N</t>
+  </si>
+  <si>
+    <t>PBE0</t>
   </si>
 </sst>
 </file>
@@ -165,14 +201,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -180,7 +216,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -188,14 +224,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -203,7 +239,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -211,7 +247,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -219,7 +255,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -227,7 +263,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -235,14 +271,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -250,7 +286,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -258,7 +294,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -266,14 +302,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -281,42 +317,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -789,55 +825,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="50">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常規" xfId="0" builtinId="0"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="貨幣" xfId="2" builtinId="4"/>
     <cellStyle name="百分比" xfId="3" builtinId="5"/>
     <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="貨幣[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超鏈接" xfId="6" builtinId="8"/>
+    <cellStyle name="已訪問的超鏈接" xfId="7" builtinId="9"/>
+    <cellStyle name="註釋" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文字" xfId="9" builtinId="11"/>
+    <cellStyle name="標題" xfId="10" builtinId="15"/>
+    <cellStyle name="解釋性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="標題 1" xfId="12" builtinId="16"/>
+    <cellStyle name="標題 2" xfId="13" builtinId="17"/>
+    <cellStyle name="標題 3" xfId="14" builtinId="18"/>
+    <cellStyle name="標題 4" xfId="15" builtinId="19"/>
+    <cellStyle name="輸入" xfId="16" builtinId="20"/>
+    <cellStyle name="輸出" xfId="17" builtinId="21"/>
+    <cellStyle name="計算" xfId="18" builtinId="22"/>
+    <cellStyle name="檢查儲存格" xfId="19" builtinId="23"/>
+    <cellStyle name="鏈接儲存格" xfId="20" builtinId="24"/>
+    <cellStyle name="匯總" xfId="21" builtinId="25"/>
     <cellStyle name="好" xfId="22" builtinId="26"/>
     <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="適中" xfId="24" builtinId="28"/>
+    <cellStyle name="強調文字顏色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 強調文字顏色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 強調文字顏色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 強調文字顏色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="強調文字顏色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 強調文字顏色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 強調文字顏色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 強調文字顏色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="強調文字顏色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 強調文字顏色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 強調文字顏色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 強調文字顏色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="強調文字顏色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 強調文字顏色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 強調文字顏色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 強調文字顏色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="強調文字顏色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 強調文字顏色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 強調文字顏色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 強調文字顏色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="強調文字顏色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 強調文字顏色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 強調文字顏色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 強調文字顏色 6" xfId="48" builtinId="52"/>
     <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <dxfs count="17">
@@ -1319,16 +1355,16 @@
       <selection activeCell="B7" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.88571428571429" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="4" width="12.2222222222222" customWidth="1"/>
-    <col min="5" max="5" width="18.1018518518519" customWidth="1"/>
-    <col min="6" max="6" width="14.1018518518519"/>
-    <col min="7" max="7" width="16.4351851851852" customWidth="1"/>
-    <col min="8" max="8" width="14.1018518518519"/>
-    <col min="9" max="10" width="18.7777777777778" customWidth="1"/>
-    <col min="11" max="11" width="14.1018518518519"/>
-    <col min="12" max="12" width="12.2222222222222" customWidth="1"/>
+    <col min="3" max="4" width="12.2190476190476" customWidth="1"/>
+    <col min="5" max="5" width="18.1047619047619" customWidth="1"/>
+    <col min="6" max="6" width="14.1047619047619"/>
+    <col min="7" max="7" width="16.4380952380952" customWidth="1"/>
+    <col min="8" max="8" width="14.1047619047619"/>
+    <col min="9" max="10" width="18.7809523809524" customWidth="1"/>
+    <col min="11" max="11" width="14.1047619047619"/>
+    <col min="12" max="12" width="12.2190476190476" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1673,19 +1709,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:F49"/>
+  <dimension ref="A2:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="24.4259259259259" customWidth="1"/>
+    <col min="1" max="1" width="24.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="14"/>
-    <col min="4" max="4" width="27.712962962963" customWidth="1"/>
-    <col min="5" max="5" width="24.5740740740741" customWidth="1"/>
+    <col min="4" max="4" width="27.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="24.5714285714286" customWidth="1"/>
     <col min="6" max="6" width="57" customWidth="1"/>
+    <col min="7" max="7" width="54.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
@@ -1746,7 +1783,7 @@
         <v>0.0294533277301525</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E20" si="1">D6*$E$2</f>
+        <f t="shared" ref="E6:E21" si="1">D6*$E$2</f>
         <v>18.4822400119514</v>
       </c>
     </row>
@@ -1920,244 +1957,220 @@
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:5">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>31</v>
       </c>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17">
-        <v>-5221.56139134365</v>
+        <v>-5221.58901286562</v>
       </c>
       <c r="D17">
         <f t="shared" si="0"/>
-        <v>0.0267875633398944</v>
+        <v>-0.000833958630209963</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>16.8094477988791</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6">
+        <v>-0.523316879667876</v>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:5">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="C18">
-        <v>-5221.56105829768</v>
+        <v>-5221.56705778845</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
-        <v>0.0271206093102592</v>
+        <v>0.0211211185396678</v>
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>17.0184372759151</v>
-      </c>
-      <c r="F18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6">
+        <v>13.2537004221558</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:5">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="C19">
-        <v>-5221.57000054987</v>
+        <v>-5221.57657619599</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
-        <v>0.0181783571197229</v>
+        <v>0.0116027109997958</v>
       </c>
       <c r="E19">
         <f t="shared" si="1"/>
-        <v>11.4070899691831</v>
-      </c>
-      <c r="F19" t="s">
+        <v>7.28081021785527</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:5">
+      <c r="A20" s="1" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
       <c r="C20">
-        <v>-5221.56246424962</v>
+        <v>-5221.559436</v>
       </c>
       <c r="D20">
         <f t="shared" si="0"/>
-        <v>0.0257146573703722</v>
+        <v>0.0287429069903737</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>16.1361892176878</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6">
+        <v>18.0364443197852</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:5">
+      <c r="A21" s="1"/>
       <c r="B21" t="s">
         <v>26</v>
       </c>
       <c r="C21">
-        <v>-5221.54184693715</v>
+        <v>-5221.54575792811</v>
       </c>
       <c r="D21">
         <f t="shared" si="0"/>
-        <v>0.0463319698401392</v>
+        <v>0.042420978879818</v>
       </c>
       <c r="E21">
-        <f t="shared" ref="E21:E35" si="2">D21*$E$2</f>
-        <v>29.0737465952038</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6">
+        <f t="shared" si="1"/>
+        <v>26.6195630042873</v>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:2">
+      <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>27</v>
       </c>
-      <c r="C22">
-        <v>-5221.55271653279</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ref="D22:D35" si="3">C22-$C$5</f>
-        <v>0.0354623741995965</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>22.2529731565643</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>35</v>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>25</v>
       </c>
       <c r="C23">
-        <v>-5221.57051677902</v>
+        <v>-5221.55615277608</v>
       </c>
       <c r="D23">
-        <f t="shared" si="3"/>
-        <v>0.0176621279697429</v>
+        <f>C23-$C$5</f>
+        <v>0.0320261309097987</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
-        <v>11.0831513250166</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
+        <f>D23*$E$2</f>
+        <v>20.0966981915292</v>
+      </c>
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B24" t="s">
         <v>26</v>
       </c>
       <c r="C24">
-        <v>-5221.562099989</v>
+        <v>-5221.57236984665</v>
       </c>
       <c r="D24">
-        <f t="shared" si="3"/>
-        <v>0.0260789179901622</v>
+        <f>C24-$C$5</f>
+        <v>0.0158090603399614</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
-        <v>16.3647661806559</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5">
+        <f>D24*$E$2</f>
+        <v>9.920333968493</v>
+      </c>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B25" t="s">
         <v>27</v>
       </c>
       <c r="C25">
-        <v>-5221.52230705609</v>
+        <v>-5221.5713282758</v>
       </c>
       <c r="D25">
-        <f t="shared" si="3"/>
-        <v>0.0658718509002938</v>
+        <f>C25-$C$5</f>
+        <v>0.0168506311902092</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
-        <v>41.3352056353328</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>36</v>
+        <f>D25*$E$2</f>
+        <v>10.5739294677895</v>
+      </c>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="B26" t="s">
         <v>25</v>
       </c>
       <c r="C26">
-        <v>-5221.54757378863</v>
+        <v>-5221.56753687756</v>
       </c>
       <c r="D26">
-        <f t="shared" si="3"/>
-        <v>0.0406051183599629</v>
+        <f>C26-$C$5</f>
+        <v>0.0206420294298368</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
-        <v>25.4800934589893</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6">
+        <f>D26*$E$2</f>
+        <v>12.9530675022993</v>
+      </c>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:2">
+      <c r="A27" s="1"/>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="C27">
-        <v>-5221.53622536652</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="3"/>
-        <v>0.0519535404700946</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="2"/>
-        <v>32.6013350082648</v>
-      </c>
-      <c r="F27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5">
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:5">
+      <c r="A28" s="1"/>
       <c r="B28" t="s">
         <v>27</v>
       </c>
       <c r="C28">
-        <v>-5221.49996592407</v>
+        <v>-5221.55237946725</v>
       </c>
       <c r="D28">
-        <f t="shared" si="3"/>
-        <v>0.0882129829196856</v>
+        <f>C28-$C$5</f>
+        <v>0.0357994397400034</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
-        <v>55.3544759841422</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>37</v>
+        <f>D28*$E$2</f>
+        <v>22.4644849515857</v>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="B29" t="s">
         <v>25</v>
       </c>
       <c r="C29">
-        <v>-5221.55106430057</v>
+        <v>-5221.56139134365</v>
       </c>
       <c r="D29">
-        <f t="shared" si="3"/>
-        <v>0.0371146064198911</v>
+        <f>C29-$C$5</f>
+        <v>0.0267875633398944</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
-        <v>23.289764405782</v>
-      </c>
-      <c r="F29" t="s">
-        <v>38</v>
+        <f>D29*$E$2</f>
+        <v>16.8094477988791</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -2165,18 +2178,18 @@
         <v>26</v>
       </c>
       <c r="C30">
-        <v>-5221.54951013288</v>
+        <v>-5221.56105829768</v>
       </c>
       <c r="D30">
-        <f t="shared" si="3"/>
-        <v>0.0386687741101923</v>
+        <f>C30-$C$5</f>
+        <v>0.0271206093102592</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
-        <v>24.2650192406223</v>
+        <f>D30*$E$2</f>
+        <v>17.0184372759151</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -2184,40 +2197,37 @@
         <v>27</v>
       </c>
       <c r="C31">
-        <v>-5221.56017375696</v>
+        <v>-5221.57000054987</v>
       </c>
       <c r="D31">
-        <f t="shared" si="3"/>
-        <v>0.0280051500303671</v>
+        <f>C31-$C$5</f>
+        <v>0.0181783571197229</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
-        <v>17.5734948924656</v>
+        <f>D31*$E$2</f>
+        <v>11.4070899691831</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
       <c r="C32">
-        <v>-5221.54799421829</v>
+        <v>-5221.56246424962</v>
       </c>
       <c r="D32">
-        <f t="shared" si="3"/>
-        <v>0.0401846886998101</v>
+        <f>C32-$C$5</f>
+        <v>0.0257146573703722</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
-        <v>25.2162698952046</v>
-      </c>
-      <c r="F32" t="s">
-        <v>34</v>
+        <f>D32*$E$2</f>
+        <v>16.1361892176878</v>
       </c>
     </row>
     <row r="33" spans="2:6">
@@ -2225,18 +2235,18 @@
         <v>26</v>
       </c>
       <c r="C33">
-        <v>-5221.55037198022</v>
+        <v>-5221.54184693715</v>
       </c>
       <c r="D33">
-        <f t="shared" si="3"/>
-        <v>0.0378069267699175</v>
+        <f>C33-$C$5</f>
+        <v>0.0463319698401392</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
-        <v>23.7242019332349</v>
+        <f t="shared" ref="E33:E47" si="2">D33*$E$2</f>
+        <v>29.0737465952038</v>
       </c>
       <c r="F33" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="2:6">
@@ -2244,93 +2254,837 @@
         <v>27</v>
       </c>
       <c r="C34">
+        <v>-5221.55271653279</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ref="D34:D47" si="3">C34-$C$5</f>
+        <v>0.0354623741995965</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>22.2529731565643</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35">
+        <v>-5221.57051677902</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="3"/>
+        <v>0.0176621279697429</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>11.0831513250166</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36">
+        <v>-5221.562099989</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="3"/>
+        <v>0.0260789179901622</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>16.3647661806559</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>-5221.52230705609</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="3"/>
+        <v>0.0658718509002938</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>41.3352056353328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <v>-5221.54757378863</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="3"/>
+        <v>0.0406051183599629</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>25.4800934589893</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6">
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39">
+        <v>-5221.53622536652</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="3"/>
+        <v>0.0519535404700946</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>32.6013350082648</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40">
+        <v>-5221.49996592407</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="3"/>
+        <v>0.0882129829196856</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>55.3544759841422</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <v>-5221.55106430057</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="3"/>
+        <v>0.0371146064198911</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>23.289764405782</v>
+      </c>
+      <c r="F41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6">
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>-5221.54951013288</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="3"/>
+        <v>0.0386687741101923</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>24.2650192406223</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6">
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43">
+        <v>-5221.56017375696</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="3"/>
+        <v>0.0280051500303671</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>17.5734948924656</v>
+      </c>
+      <c r="F43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <v>-5221.54799421829</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="3"/>
+        <v>0.0401846886998101</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>25.2162698952046</v>
+      </c>
+      <c r="F44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6">
+      <c r="B45" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45">
+        <v>-5221.55037198022</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="3"/>
+        <v>0.0378069267699175</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>23.7242019332349</v>
+      </c>
+      <c r="F45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6">
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46">
         <v>-5221.55001883078</v>
       </c>
-      <c r="D34">
+      <c r="D46">
         <f t="shared" si="3"/>
         <v>0.0381600762102607</v>
       </c>
-      <c r="E34">
+      <c r="E46">
         <f t="shared" si="2"/>
         <v>23.945806526655</v>
       </c>
-      <c r="F34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+      <c r="F46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48">
+        <v>-5221.50685344789</v>
+      </c>
+      <c r="D48">
+        <f>C48-$C$53</f>
+        <v>0.0821678412603433</v>
+      </c>
+      <c r="E48">
+        <f>D48*$E$2</f>
+        <v>51.5610927685732</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+      <c r="C49">
+        <v>-5221.58569996886</v>
+      </c>
+      <c r="D49">
+        <f>C49-$C$53</f>
+        <v>0.00332132028961496</v>
+      </c>
+      <c r="E49">
+        <f>D49*$E$2</f>
+        <v>2.08415970214411</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+      <c r="C50">
+        <v>-5221.55939649607</v>
+      </c>
+      <c r="D50">
+        <f>C50-$C$53</f>
+        <v>0.0296247930800746</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ref="E50:E59" si="4">D50*$E$2</f>
+        <v>18.5898361308018</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
+      <c r="C51">
+        <v>-5221.56150134884</v>
+      </c>
+      <c r="D51">
+        <f>C51-$C$53</f>
+        <v>0.0275199403104125</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="4"/>
+        <v>17.2690212322228</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52">
+        <v>-5221.50353687506</v>
+      </c>
+      <c r="D52">
+        <f>C52-$C$53</f>
+        <v>0.0854844140903879</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="4"/>
+        <v>53.6422733952108</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
+      <c r="C53">
+        <v>-5221.58902128915</v>
+      </c>
+      <c r="D53">
+        <f>C53-$C$53</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+      <c r="C54">
+        <v>-5221.56709564589</v>
+      </c>
+      <c r="D54">
+        <f t="shared" ref="D54:D63" si="5">C54-$C$53</f>
+        <v>0.0219256432601469</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="4"/>
+        <v>13.7585472467888</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+      <c r="C55">
+        <v>-5221.57647429965</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="5"/>
+        <v>0.0125469895001515</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>7.87335385304639</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56">
+        <v>-5221.57500753358</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="5"/>
+        <v>0.0140137555699766</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>8.7937633494627</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+      <c r="C57">
+        <v>-5221.55616154882</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="5"/>
+        <v>0.0328597403304229</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>20.6197959388995</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
+      <c r="C58">
+        <v>-5221.57208960714</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="5"/>
+        <v>0.0169316820101812</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="4"/>
+        <v>10.6247896191996</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6">
+      <c r="B59" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
+      <c r="C59">
+        <v>-5221.57658968649</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="5"/>
+        <v>0.0124316026603992</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>7.80094752646552</v>
+      </c>
+      <c r="F59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60">
+        <v>-5221.55661231176</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="5"/>
+        <v>0.0324089773903324</v>
+      </c>
+      <c r="E60">
+        <f>D60*$E$2</f>
+        <v>20.3369379568211</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
+      <c r="C61">
+        <v>-5221.56118127291</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="5"/>
+        <v>0.0278400162396792</v>
+      </c>
+      <c r="E61">
+        <f>D61*$E$2</f>
+        <v>17.4698718865514</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" t="s">
+      <c r="C62">
+        <v>-5221.55216269351</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="5"/>
+        <v>0.0368585956402967</v>
+      </c>
+      <c r="E62">
+        <f>D62*$E$2</f>
+        <v>23.1291152350852</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" t="s">
+      <c r="C63">
+        <v>-5221.55917196939</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="5"/>
+        <v>0.0298493197597054</v>
+      </c>
+      <c r="E63">
+        <f>D63*$E$2</f>
+        <v>18.7307287328209</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1"/>
+      <c r="B65" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="2:2">
-      <c r="B48" t="s">
+      <c r="C65">
+        <v>-5221.559436</v>
+      </c>
+      <c r="D65">
+        <f>C65-$C$53</f>
+        <v>0.0295852891504182</v>
+      </c>
+      <c r="E65">
+        <f>D65*$E$2</f>
+        <v>18.5650470436055</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1"/>
+      <c r="B66" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="2:2">
-      <c r="B49" t="s">
+      <c r="C66">
+        <v>-5221.54575792811</v>
+      </c>
+      <c r="D66">
+        <f>C66-$C$53</f>
+        <v>0.0432633610398625</v>
+      </c>
+      <c r="E66">
+        <f>D66*$E$2</f>
+        <v>27.1481657281075</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69">
+        <v>-5219.83177701889</v>
+      </c>
+      <c r="D69">
+        <f>C69-$C$74</f>
+        <v>0.0732395236800585</v>
+      </c>
+      <c r="E69">
+        <f>D69*$E$2</f>
+        <v>45.9584895607593</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70">
+        <v>-5219.90268270079</v>
+      </c>
+      <c r="D70">
+        <f>C70-$C$74</f>
+        <v>0.00233384177954576</v>
+      </c>
+      <c r="E70">
+        <f>D70*$E$2</f>
+        <v>1.46450765477769</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71">
+        <v>-5219.8756246763</v>
+      </c>
+      <c r="D71">
+        <f t="shared" ref="D71:D84" si="6">C71-$C$74</f>
+        <v>0.0293918662700889</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71:E84" si="7">D71*$E$2</f>
+        <v>18.4436723680237</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" t="s">
         <v>27</v>
+      </c>
+      <c r="C72">
+        <v>-5219.86769808485</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="6"/>
+        <v>0.037318457719266</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="7"/>
+        <v>23.417683012342</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>47</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73">
+        <v>-5219.82923559287</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="6"/>
+        <v>0.0757809496999471</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="7"/>
+        <v>47.553258277644</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74">
+        <v>-5219.90501654257</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" t="s">
+        <v>26</v>
+      </c>
+      <c r="C75">
+        <v>-5219.87536747353</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="6"/>
+        <v>0.0296490690398059</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="7"/>
+        <v>18.6050695237272</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76">
+        <v>-5219.88138899864</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="6"/>
+        <v>0.0236275439292513</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="7"/>
+        <v>14.8265059145181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77">
+        <v>-5219.88805058896</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="6"/>
+        <v>0.0169659536095423</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="7"/>
+        <v>10.6462953699517</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78">
+        <v>-5219.87168865144</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="6"/>
+        <v>0.0333278911293746</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="7"/>
+        <v>20.9135649658592</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" t="s">
+        <v>26</v>
+      </c>
+      <c r="C79">
+        <v>-5219.8819040958</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="6"/>
+        <v>0.0231124467700283</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="7"/>
+        <v>14.5032776051924</v>
+      </c>
+    </row>
+    <row r="80" spans="2:6">
+      <c r="B80" t="s">
+        <v>27</v>
+      </c>
+      <c r="C80">
+        <v>-5219.88151111097</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="6"/>
+        <v>0.023505431599915</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="7"/>
+        <v>14.7498792800037</v>
+      </c>
+      <c r="F80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>50</v>
+      </c>
+      <c r="B81" t="s">
+        <v>46</v>
+      </c>
+      <c r="C81">
+        <v>-5219.87651428126</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="6"/>
+        <v>0.0285022613097681</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="7"/>
+        <v>17.8854368931358</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" t="s">
+        <v>25</v>
+      </c>
+      <c r="C82">
+        <v>-5219.88660196198</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="6"/>
+        <v>0.018414580589706</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="7"/>
+        <v>11.5553224170981</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" t="s">
+        <v>26</v>
+      </c>
+      <c r="C83">
+        <v>-5219.86874745506</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="6"/>
+        <v>0.0362690875099361</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="7"/>
+        <v>22.7591933419075</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" t="s">
+        <v>27</v>
+      </c>
+      <c r="C84">
+        <v>-5219.85889585192</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="6"/>
+        <v>0.0461206906493317</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="7"/>
+        <v>28.9411669169477</v>
       </c>
     </row>
   </sheetData>
@@ -2348,7 +3102,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
